--- a/horarios_optimizados-532-push_gap_0.50.xlsx
+++ b/horarios_optimizados-532-push_gap_0.50.xlsx
@@ -613,93 +613,25 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
       <c r="G5" s="4" t="inlineStr"/>
       <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P5" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q5" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R5" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S5" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T5" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr"/>
+      <c r="K5" s="4" t="inlineStr"/>
+      <c r="L5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="inlineStr"/>
+      <c r="N5" s="4" t="inlineStr"/>
+      <c r="O5" s="4" t="inlineStr"/>
+      <c r="P5" s="4" t="inlineStr"/>
+      <c r="Q5" s="4" t="inlineStr"/>
+      <c r="R5" s="4" t="inlineStr"/>
+      <c r="S5" s="4" t="inlineStr"/>
+      <c r="T5" s="4" t="inlineStr"/>
       <c r="U5" s="4" t="inlineStr"/>
       <c r="V5" s="4" t="inlineStr"/>
       <c r="W5" s="4" t="inlineStr"/>
@@ -716,22 +648,82 @@
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr"/>
-      <c r="K6" s="4" t="inlineStr"/>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N6" s="4" t="inlineStr"/>
-      <c r="O6" s="4" t="inlineStr"/>
-      <c r="P6" s="4" t="inlineStr"/>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr"/>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="4" t="inlineStr"/>
-      <c r="U6" s="4" t="inlineStr"/>
-      <c r="V6" s="4" t="inlineStr"/>
-      <c r="W6" s="4" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -739,50 +731,38 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr"/>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr"/>
-      <c r="J7" s="4" t="inlineStr"/>
-      <c r="K7" s="4" t="inlineStr"/>
-      <c r="L7" s="4" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr"/>
       <c r="N7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -866,15 +846,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I8" s="4" t="inlineStr"/>
-      <c r="J8" s="4" t="inlineStr"/>
-      <c r="K8" s="4" t="inlineStr"/>
-      <c r="L8" s="4" t="inlineStr"/>
+      <c r="H8" s="4" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -890,46 +882,34 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P8" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q8" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R8" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S8" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T8" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U8" s="4" t="inlineStr"/>
+      <c r="V8" s="4" t="inlineStr"/>
+      <c r="W8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -943,15 +923,27 @@
       <c r="E9" s="4" t="inlineStr"/>
       <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="inlineStr"/>
-      <c r="H9" s="4" t="inlineStr"/>
-      <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="4" t="inlineStr"/>
-      <c r="K9" s="4" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr"/>
       <c r="M9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1053,17 +1045,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M10" s="4" t="inlineStr"/>
       <c r="N10" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O10" s="4" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1099,11 +1091,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="W10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1111,26 +1099,10 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B11" s="4" t="inlineStr"/>
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
       <c r="F11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1146,10 +1118,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr"/>
-      <c r="J11" s="4" t="inlineStr"/>
-      <c r="K11" s="4" t="inlineStr"/>
-      <c r="L11" s="4" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1160,11 +1148,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O11" s="4" t="inlineStr"/>
       <c r="P11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1175,10 +1159,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr"/>
-      <c r="S11" s="4" t="inlineStr"/>
-      <c r="T11" s="4" t="inlineStr"/>
-      <c r="U11" s="4" t="inlineStr"/>
+      <c r="R11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V11" s="4" t="inlineStr"/>
       <c r="W11" s="4" t="inlineStr"/>
     </row>
@@ -1268,55 +1268,43 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B15" s="4" t="inlineStr"/>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr"/>
       <c r="H15" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr"/>
-      <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="4" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M15" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N15" s="4" t="inlineStr"/>
       <c r="O15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1369,100 +1357,28 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B16" s="4" t="inlineStr"/>
+      <c r="C16" s="4" t="inlineStr"/>
+      <c r="D16" s="4" t="inlineStr"/>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr"/>
+      <c r="H16" s="4" t="inlineStr"/>
       <c r="I16" s="4" t="inlineStr"/>
       <c r="J16" s="4" t="inlineStr"/>
       <c r="K16" s="4" t="inlineStr"/>
       <c r="L16" s="4" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M16" s="4" t="inlineStr"/>
+      <c r="N16" s="4" t="inlineStr"/>
+      <c r="O16" s="4" t="inlineStr"/>
+      <c r="P16" s="4" t="inlineStr"/>
+      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="R16" s="4" t="inlineStr"/>
+      <c r="S16" s="4" t="inlineStr"/>
+      <c r="T16" s="4" t="inlineStr"/>
+      <c r="U16" s="4" t="inlineStr"/>
+      <c r="V16" s="4" t="inlineStr"/>
+      <c r="W16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1470,28 +1386,100 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr"/>
-      <c r="C17" s="4" t="inlineStr"/>
-      <c r="D17" s="4" t="inlineStr"/>
-      <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="4" t="inlineStr"/>
-      <c r="G17" s="4" t="inlineStr"/>
-      <c r="H17" s="4" t="inlineStr"/>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I17" s="4" t="inlineStr"/>
       <c r="J17" s="4" t="inlineStr"/>
       <c r="K17" s="4" t="inlineStr"/>
       <c r="L17" s="4" t="inlineStr"/>
-      <c r="M17" s="4" t="inlineStr"/>
-      <c r="N17" s="4" t="inlineStr"/>
-      <c r="O17" s="4" t="inlineStr"/>
-      <c r="P17" s="4" t="inlineStr"/>
-      <c r="Q17" s="4" t="inlineStr"/>
-      <c r="R17" s="4" t="inlineStr"/>
-      <c r="S17" s="4" t="inlineStr"/>
-      <c r="T17" s="4" t="inlineStr"/>
-      <c r="U17" s="4" t="inlineStr"/>
-      <c r="V17" s="4" t="inlineStr"/>
-      <c r="W17" s="4" t="inlineStr"/>
+      <c r="M17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1545,12 +1533,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q18" s="4" t="inlineStr"/>
+      <c r="P18" s="4" t="inlineStr"/>
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1618,27 +1606,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H19" s="4" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr"/>
+      <c r="J19" s="4" t="inlineStr"/>
+      <c r="K19" s="4" t="inlineStr"/>
+      <c r="L19" s="4" t="inlineStr"/>
       <c r="M19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1649,11 +1625,31 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O19" s="4" t="inlineStr"/>
-      <c r="P19" s="4" t="inlineStr"/>
-      <c r="Q19" s="4" t="inlineStr"/>
-      <c r="R19" s="4" t="inlineStr"/>
-      <c r="S19" s="4" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S19" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="T19" s="4" t="inlineStr"/>
       <c r="U19" s="4" t="inlineStr"/>
       <c r="V19" s="4" t="inlineStr"/>
@@ -1669,21 +1665,9 @@
       <c r="C20" s="4" t="inlineStr"/>
       <c r="D20" s="4" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F20" s="4" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr"/>
+      <c r="H20" s="4" t="inlineStr"/>
       <c r="I20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1704,17 +1688,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M20" s="4" t="inlineStr"/>
+      <c r="M20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N20" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O20" s="4" t="inlineStr"/>
       <c r="P20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1730,23 +1714,31 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S20" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T20" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U20" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V20" s="4" t="inlineStr"/>
-      <c r="W20" s="4" t="inlineStr"/>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1794,12 +1786,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1915,21 +1907,37 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr"/>
-      <c r="C25" s="4" t="inlineStr"/>
-      <c r="D25" s="4" t="inlineStr"/>
-      <c r="E25" s="4" t="inlineStr"/>
-      <c r="F25" s="4" t="inlineStr"/>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="H25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H25" s="4" t="inlineStr"/>
       <c r="I25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1960,47 +1968,39 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q25" s="4" t="inlineStr"/>
-      <c r="R25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O25" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P25" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q25" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R25" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S25" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T25" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr"/>
+      <c r="W25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -2038,27 +2038,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr"/>
+      <c r="J26" s="4" t="inlineStr"/>
+      <c r="K26" s="4" t="inlineStr"/>
+      <c r="L26" s="4" t="inlineStr"/>
       <c r="M26" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2069,15 +2057,51 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O26" s="4" t="inlineStr"/>
-      <c r="P26" s="4" t="inlineStr"/>
-      <c r="Q26" s="4" t="inlineStr"/>
-      <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="4" t="inlineStr"/>
-      <c r="T26" s="4" t="inlineStr"/>
-      <c r="U26" s="4" t="inlineStr"/>
-      <c r="V26" s="4" t="inlineStr"/>
-      <c r="W26" s="4" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -2146,19 +2170,19 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O27" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q27" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
+      <c r="O27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
         </is>
       </c>
       <c r="R27" s="4" t="inlineStr"/>
@@ -2203,17 +2227,37 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr"/>
-      <c r="C29" s="4" t="inlineStr"/>
-      <c r="D29" s="4" t="inlineStr"/>
-      <c r="E29" s="4" t="inlineStr"/>
-      <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="4" t="inlineStr"/>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr"/>
       <c r="I29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2229,7 +2273,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L29" s="4" t="inlineStr"/>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2240,51 +2288,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O29" s="4" t="inlineStr"/>
+      <c r="P29" s="4" t="inlineStr"/>
+      <c r="Q29" s="4" t="inlineStr"/>
+      <c r="R29" s="4" t="inlineStr"/>
+      <c r="S29" s="4" t="inlineStr"/>
+      <c r="T29" s="4" t="inlineStr"/>
+      <c r="U29" s="4" t="inlineStr"/>
+      <c r="V29" s="4" t="inlineStr"/>
+      <c r="W29" s="4" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -2312,25 +2324,25 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr"/>
-      <c r="G30" s="4" t="inlineStr"/>
-      <c r="H30" s="4" t="inlineStr"/>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I30" s="4" t="inlineStr"/>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J30" s="4" t="inlineStr"/>
+      <c r="K30" s="4" t="inlineStr"/>
+      <c r="L30" s="4" t="inlineStr"/>
       <c r="M30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2393,25 +2405,29 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr"/>
-      <c r="C31" s="4" t="inlineStr"/>
-      <c r="D31" s="4" t="inlineStr"/>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr"/>
+      <c r="G31" s="4" t="inlineStr"/>
+      <c r="H31" s="4" t="inlineStr"/>
       <c r="I31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2447,32 +2463,20 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P31" s="4" t="inlineStr"/>
+      <c r="P31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q31" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="R31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R31" s="4" t="inlineStr"/>
+      <c r="S31" s="4" t="inlineStr"/>
+      <c r="T31" s="4" t="inlineStr"/>
+      <c r="U31" s="4" t="inlineStr"/>
       <c r="V31" s="4" t="inlineStr"/>
       <c r="W31" s="4" t="inlineStr"/>
     </row>
@@ -2562,28 +2566,100 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr"/>
-      <c r="C35" s="4" t="inlineStr"/>
-      <c r="D35" s="4" t="inlineStr"/>
-      <c r="E35" s="4" t="inlineStr"/>
-      <c r="F35" s="4" t="inlineStr"/>
-      <c r="G35" s="4" t="inlineStr"/>
-      <c r="H35" s="4" t="inlineStr"/>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I35" s="4" t="inlineStr"/>
       <c r="J35" s="4" t="inlineStr"/>
       <c r="K35" s="4" t="inlineStr"/>
       <c r="L35" s="4" t="inlineStr"/>
-      <c r="M35" s="4" t="inlineStr"/>
-      <c r="N35" s="4" t="inlineStr"/>
-      <c r="O35" s="4" t="inlineStr"/>
-      <c r="P35" s="4" t="inlineStr"/>
-      <c r="Q35" s="4" t="inlineStr"/>
-      <c r="R35" s="4" t="inlineStr"/>
-      <c r="S35" s="4" t="inlineStr"/>
-      <c r="T35" s="4" t="inlineStr"/>
-      <c r="U35" s="4" t="inlineStr"/>
-      <c r="V35" s="4" t="inlineStr"/>
-      <c r="W35" s="4" t="inlineStr"/>
+      <c r="M35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -2591,17 +2667,37 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr"/>
-      <c r="C36" s="4" t="inlineStr"/>
-      <c r="D36" s="4" t="inlineStr"/>
-      <c r="E36" s="4" t="inlineStr"/>
-      <c r="F36" s="4" t="inlineStr"/>
-      <c r="G36" s="4" t="inlineStr"/>
-      <c r="H36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="inlineStr"/>
       <c r="I36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2627,52 +2723,20 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N36" s="4" t="inlineStr"/>
-      <c r="O36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O36" s="4" t="inlineStr"/>
+      <c r="P36" s="4" t="inlineStr"/>
+      <c r="Q36" s="4" t="inlineStr"/>
+      <c r="R36" s="4" t="inlineStr"/>
+      <c r="S36" s="4" t="inlineStr"/>
+      <c r="T36" s="4" t="inlineStr"/>
+      <c r="U36" s="4" t="inlineStr"/>
+      <c r="V36" s="4" t="inlineStr"/>
+      <c r="W36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -2686,82 +2750,22 @@
       <c r="E37" s="4" t="inlineStr"/>
       <c r="F37" s="4" t="inlineStr"/>
       <c r="G37" s="4" t="inlineStr"/>
-      <c r="H37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H37" s="4" t="inlineStr"/>
+      <c r="I37" s="4" t="inlineStr"/>
+      <c r="J37" s="4" t="inlineStr"/>
+      <c r="K37" s="4" t="inlineStr"/>
+      <c r="L37" s="4" t="inlineStr"/>
       <c r="M37" s="4" t="inlineStr"/>
-      <c r="N37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N37" s="4" t="inlineStr"/>
+      <c r="O37" s="4" t="inlineStr"/>
+      <c r="P37" s="4" t="inlineStr"/>
+      <c r="Q37" s="4" t="inlineStr"/>
+      <c r="R37" s="4" t="inlineStr"/>
+      <c r="S37" s="4" t="inlineStr"/>
+      <c r="T37" s="4" t="inlineStr"/>
+      <c r="U37" s="4" t="inlineStr"/>
+      <c r="V37" s="4" t="inlineStr"/>
+      <c r="W37" s="4" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -2799,27 +2803,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H38" s="4" t="inlineStr"/>
-      <c r="I38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I38" s="4" t="inlineStr"/>
+      <c r="J38" s="4" t="inlineStr"/>
+      <c r="K38" s="4" t="inlineStr"/>
+      <c r="L38" s="4" t="inlineStr"/>
       <c r="M38" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2830,39 +2822,51 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O38" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P38" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q38" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R38" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S38" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T38" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U38" s="4" t="inlineStr"/>
-      <c r="V38" s="4" t="inlineStr"/>
-      <c r="W38" s="4" t="inlineStr"/>
+      <c r="O38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -2870,45 +2874,21 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B39" s="4" t="inlineStr"/>
+      <c r="C39" s="4" t="inlineStr"/>
+      <c r="D39" s="4" t="inlineStr"/>
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr"/>
+      <c r="H39" s="4" t="inlineStr"/>
       <c r="I39" s="4" t="inlineStr"/>
       <c r="J39" s="4" t="inlineStr"/>
       <c r="K39" s="4" t="inlineStr"/>
-      <c r="L39" s="4" t="inlineStr"/>
+      <c r="L39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2934,20 +2914,36 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R39" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S39" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T39" s="4" t="inlineStr"/>
-      <c r="U39" s="4" t="inlineStr"/>
-      <c r="V39" s="4" t="inlineStr"/>
-      <c r="W39" s="4" t="inlineStr"/>
+      <c r="R39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -2991,9 +2987,21 @@
         </is>
       </c>
       <c r="I40" s="4" t="inlineStr"/>
-      <c r="J40" s="4" t="inlineStr"/>
-      <c r="K40" s="4" t="inlineStr"/>
-      <c r="L40" s="4" t="inlineStr"/>
+      <c r="J40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3004,46 +3012,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O40" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P40" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q40" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R40" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S40" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T40" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U40" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V40" s="4" t="inlineStr"/>
       <c r="W40" s="4" t="inlineStr"/>
     </row>
     <row r="41">
@@ -3072,29 +3076,25 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr"/>
-      <c r="G41" s="4" t="inlineStr"/>
-      <c r="H41" s="4" t="inlineStr"/>
-      <c r="I41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I41" s="4" t="inlineStr"/>
+      <c r="J41" s="4" t="inlineStr"/>
+      <c r="K41" s="4" t="inlineStr"/>
+      <c r="L41" s="4" t="inlineStr"/>
       <c r="M41" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3245,29 +3245,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3288,17 +3276,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -3319,17 +3319,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -3338,10 +3338,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -3367,24 +3367,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>8.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -3405,20 +3405,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3443,21 +3453,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
         <v>0.5</v>
@@ -3481,29 +3491,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -3524,17 +3534,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3543,10 +3553,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -3567,29 +3577,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3610,17 +3608,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3646,12 +3656,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>17:30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>18:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3689,24 +3699,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -3727,26 +3737,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
         <v>0.5</v>
@@ -3775,12 +3785,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>16:30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>17:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3813,26 +3823,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
         <v>0.5</v>
@@ -3861,24 +3871,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -3973,26 +3983,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
         <v>0.5</v>
@@ -4021,12 +4031,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4059,29 +4069,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23">
@@ -4102,17 +4112,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -4133,26 +4155,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
       <c r="H24" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
         <v>0.5</v>
@@ -4176,29 +4198,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4224,24 +4234,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -4262,30 +4272,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4315,19 +4315,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
@@ -4353,12 +4353,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -4367,10 +4367,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
